--- a/data/spring-cloud-shop/shop-user-model_structure.xlsx
+++ b/data/spring-cloud-shop/shop-user-model_structure.xlsx
@@ -546,43 +546,52 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
     <t>phone</t>
   </si>
   <si>
-    <t>source</t>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>isDefault</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>address</t>
+    <t>username</t>
   </si>
   <si>
     <t>avatar</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>gender</t>
+    <t>defaultAddress</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>cityName</t>
   </si>
   <si>
     <t>label</t>
@@ -594,7 +603,7 @@
     <t>deliveryAddress</t>
   </si>
   <si>
-    <t>mobile</t>
+    <t>latitude</t>
   </si>
   <si>
     <t>userId</t>
@@ -603,15 +612,6 @@
     <t>longitude</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>cityName</t>
-  </si>
-  <si>
-    <t>defaultAddress</t>
-  </si>
-  <si>
     <t>messageIds</t>
   </si>
   <si>
@@ -636,19 +636,19 @@
     <t>integral</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>NON_READ</t>
+  </si>
+  <si>
     <t>READ</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>NON_READ</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -8663,7 +8663,7 @@
         <v>156</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
@@ -8671,13 +8671,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -8705,7 +8705,7 @@
         <v>156</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -8733,7 +8733,7 @@
         <v>156</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -8741,13 +8741,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -8775,7 +8775,7 @@
         <v>156</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -8789,7 +8789,7 @@
         <v>156</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -8797,13 +8797,13 @@
         <v>48</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -8817,7 +8817,7 @@
         <v>156</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -8831,7 +8831,7 @@
         <v>156</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -8867,7 +8867,7 @@
         <v>56</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>156</v>
@@ -8881,7 +8881,7 @@
         <v>56</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>156</v>
@@ -8895,13 +8895,13 @@
         <v>56</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -8909,7 +8909,7 @@
         <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>156</v>
@@ -8923,7 +8923,7 @@
         <v>56</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>156</v>
@@ -8937,7 +8937,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>156</v>
@@ -8957,7 +8957,7 @@
         <v>156</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -8971,7 +8971,7 @@
         <v>156</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -8979,13 +8979,13 @@
         <v>40</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -8993,7 +8993,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>156</v>
@@ -9007,13 +9007,13 @@
         <v>40</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -9021,7 +9021,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>156</v>
@@ -9035,7 +9035,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>156</v>
@@ -9049,13 +9049,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
@@ -9077,13 +9077,13 @@
         <v>15</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -9091,13 +9091,13 @@
         <v>62</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -9105,7 +9105,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>156</v>
@@ -9119,7 +9119,7 @@
         <v>62</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>156</v>
@@ -9133,13 +9133,13 @@
         <v>62</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -9147,13 +9147,13 @@
         <v>62</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40">
@@ -9161,13 +9161,13 @@
         <v>62</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -9175,7 +9175,7 @@
         <v>62</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>156</v>
@@ -9189,13 +9189,13 @@
         <v>62</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -9203,7 +9203,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>156</v>
@@ -9217,13 +9217,13 @@
         <v>62</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -9231,13 +9231,13 @@
         <v>62</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
@@ -9245,7 +9245,7 @@
         <v>62</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>156</v>
@@ -9273,7 +9273,7 @@
         <v>101</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>156</v>
@@ -9287,7 +9287,7 @@
         <v>103</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>156</v>
@@ -9301,7 +9301,7 @@
         <v>103</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>156</v>
@@ -9315,7 +9315,7 @@
         <v>103</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>156</v>
@@ -9329,7 +9329,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>156</v>
@@ -9343,7 +9343,7 @@
         <v>103</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>156</v>
@@ -9357,13 +9357,13 @@
         <v>103</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -9371,7 +9371,7 @@
         <v>103</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>156</v>
@@ -9385,13 +9385,13 @@
         <v>103</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
@@ -9399,7 +9399,7 @@
         <v>103</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>156</v>
@@ -9413,7 +9413,7 @@
         <v>103</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>156</v>
@@ -9427,7 +9427,7 @@
         <v>103</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>156</v>
@@ -9441,13 +9441,13 @@
         <v>105</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61">
@@ -9455,13 +9455,13 @@
         <v>105</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>178</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
@@ -9483,13 +9483,13 @@
         <v>49</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>112</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64">
@@ -9497,13 +9497,13 @@
         <v>49</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65">
@@ -9511,7 +9511,7 @@
         <v>49</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>156</v>
@@ -9525,13 +9525,13 @@
         <v>49</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -9539,7 +9539,7 @@
         <v>49</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>156</v>
@@ -9553,13 +9553,13 @@
         <v>49</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>178</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -9567,13 +9567,13 @@
         <v>116</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70">
@@ -9581,13 +9581,13 @@
         <v>118</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71">
@@ -9595,13 +9595,13 @@
         <v>120</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72">
@@ -9609,13 +9609,13 @@
         <v>122</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>178</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
@@ -9637,13 +9637,13 @@
         <v>122</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75">
@@ -9651,13 +9651,13 @@
         <v>127</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76">
@@ -9665,13 +9665,13 @@
         <v>127</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -9693,13 +9693,13 @@
         <v>133</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79">
@@ -9721,13 +9721,13 @@
         <v>136</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
@@ -9735,13 +9735,13 @@
         <v>136</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82">
@@ -9749,13 +9749,13 @@
         <v>136</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -9763,13 +9763,13 @@
         <v>136</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -9777,13 +9777,13 @@
         <v>136</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -9805,13 +9805,13 @@
         <v>141</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>125</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87">
@@ -9819,13 +9819,13 @@
         <v>141</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>178</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
@@ -9833,13 +9833,13 @@
         <v>147</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>178</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -9847,7 +9847,7 @@
         <v>147</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>156</v>
@@ -9861,13 +9861,13 @@
         <v>147</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>156</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91">
@@ -9892,10 +9892,10 @@
         <v>204</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -9909,7 +9909,7 @@
         <v>156</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
@@ -9923,7 +9923,7 @@
         <v>156</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95">
@@ -9934,10 +9934,10 @@
         <v>207</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
